--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\causal-inference-class\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\Bogot-grades\Roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E3F8CB-23B3-41FE-8874-B60EFA965196}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465C48DC-1472-470B-86A6-2B2498134AFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3D61839-BA07-46E1-8D5A-46A1EFB933EE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>maximum grade</t>
+  </si>
+  <si>
+    <t>Assignment 3</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -139,6 +142,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820B02A1-2325-4B85-8B01-7177D209DAC7}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -466,9 +470,10 @@
     <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +489,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -501,8 +509,11 @@
       <c r="E2" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1020815434</v>
       </c>
@@ -515,11 +526,14 @@
       <c r="D3" s="3">
         <v>100</v>
       </c>
-      <c r="E3" s="3">
-        <v>5.882352941176471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="7">
+        <v>75</v>
+      </c>
+      <c r="F3" s="7">
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1010125106</v>
       </c>
@@ -532,11 +546,14 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>55304317</v>
       </c>
@@ -549,11 +566,14 @@
       <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>91.17647058823529</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1002154998</v>
       </c>
@@ -566,11 +586,14 @@
       <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>79.705882352941174</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1143847125</v>
       </c>
@@ -583,11 +606,14 @@
       <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>94.117647058823536</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="7">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1020405344</v>
       </c>
@@ -600,11 +626,14 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>77.941176470588232</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="7">
+        <v>88.666666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1000220414</v>
       </c>
@@ -617,11 +646,14 @@
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>96.352941176470608</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="7">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1026304205</v>
       </c>
@@ -634,11 +666,14 @@
       <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>94.117647058823536</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>355061</v>
       </c>
@@ -651,13 +686,16 @@
       <c r="D11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>94.666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>1014283697</v>
+        <v>1018508749</v>
       </c>
       <c r="B12" s="3">
         <v>0.1</v>
@@ -668,47 +706,56 @@
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>97.823529411764724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="7">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="F12" s="7">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>1018508749</v>
+        <v>70253417</v>
       </c>
       <c r="B13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>70253417</v>
+        <v>1136888718</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="7">
+        <v>99.29411764705884</v>
+      </c>
+      <c r="F14" s="7">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>1136888718</v>
+        <v>293841098</v>
       </c>
       <c r="B15" s="3">
         <v>0.1</v>
@@ -719,47 +766,56 @@
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1072714383</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1010243078</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7">
         <v>99.29411764705884</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>293841098</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>1072714383</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>1010243078</v>
+        <v>1007351402</v>
       </c>
       <c r="B18" s="3">
         <v>0.1</v>
@@ -770,47 +826,56 @@
       <c r="D18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="F18" s="7">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1002996359</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1010236320</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="7">
         <v>99.29411764705884</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>1007351402</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>100</v>
-      </c>
-      <c r="E19" s="3">
-        <v>76.470588235294116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1002996459</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>1010236320</v>
+        <v>1020845574</v>
       </c>
       <c r="B21" s="3">
         <v>0.1</v>
@@ -821,336 +886,396 @@
       <c r="D21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
+        <v>92.647058823529406</v>
+      </c>
+      <c r="F21" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1020729394</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="F22" s="7">
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>80039961</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="7">
+        <v>91.17647058823529</v>
+      </c>
+      <c r="F23" s="7">
+        <v>75.999999999999986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1026304547</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="7">
         <v>99.29411764705884</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1020845574</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="F24" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1088328190</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1072706035</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7">
+        <v>97.64705882352942</v>
+      </c>
+      <c r="F26" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1032453588</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="7">
+        <v>95.588235294117652</v>
+      </c>
+      <c r="F27" s="7">
+        <v>75.333333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1014288458</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>100</v>
+      </c>
+      <c r="E28" s="7">
+        <v>94.705882352941188</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1143877513</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="7">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1019131372</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>100</v>
+      </c>
+      <c r="E30" s="7">
+        <v>100</v>
+      </c>
+      <c r="F30" s="7">
+        <v>95.999999999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1136880643</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7">
+        <v>91.941176470588232</v>
+      </c>
+      <c r="F31" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1018508173</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7">
+        <v>89.71</v>
+      </c>
+      <c r="F32" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1004133287</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7">
+        <v>100</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1015468827</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100</v>
+      </c>
+      <c r="E34" s="7">
+        <v>97.64705882352942</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1143372208</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7">
+        <v>94.117647058823536</v>
+      </c>
+      <c r="F35" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1014264765</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1018503227</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>100</v>
+      </c>
+      <c r="E37" s="7">
+        <v>100</v>
+      </c>
+      <c r="F37" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1015448479</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100</v>
+      </c>
+      <c r="E38" s="7">
+        <v>94.117647058823536</v>
+      </c>
+      <c r="F38" s="7">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1018496783</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>100</v>
+      </c>
+      <c r="E39" s="7">
+        <v>100</v>
+      </c>
+      <c r="F39" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>1071171655</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>100</v>
+      </c>
+      <c r="E40" s="7">
         <v>92.647058823529406</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>1020729394</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.882352941176471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>80039961</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>91.17647058823529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>1026304547</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>100</v>
-      </c>
-      <c r="E25" s="3">
-        <v>99.29411764705884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>1088328190</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>1072706035</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>97.64705882352942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>1032453588</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>95.588235294117652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>1014288458</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3">
-        <v>94.705882352941188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>1143877513</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>1019131372</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>100</v>
-      </c>
-      <c r="E31" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>1136880643</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>91.941176470588232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>1018508173</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>1004133287</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>100</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5.882352941176471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>1015468827</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>97.64705882352942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>1143372208</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3">
-        <v>94.117647058823536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>1014264765</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>1018503227</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>1015448479</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>100</v>
-      </c>
-      <c r="E39" s="3">
-        <v>94.117647058823536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>1018496783</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>100</v>
-      </c>
-      <c r="E40" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>1071171655</v>
+        <v>1020821245</v>
       </c>
       <c r="B41" s="3">
         <v>0.1</v>
@@ -1161,13 +1286,16 @@
       <c r="D41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>92.647058823529406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="7">
+        <v>100</v>
+      </c>
+      <c r="F41" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>1020821245</v>
+        <v>80774647</v>
       </c>
       <c r="B42" s="3">
         <v>0.1</v>
@@ -1178,45 +1306,35 @@
       <c r="D42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="7">
+        <v>98.529411764705884</v>
+      </c>
+      <c r="F42" s="7">
+        <v>95.333333333333329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>80774647</v>
+        <v>1056076234</v>
       </c>
       <c r="B43" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>98.529411764705884</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>1056076234</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\Bogot-grades\Roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465C48DC-1472-470B-86A6-2B2498134AFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41419D6-0437-4F6A-809E-EE89F78C2F2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3D61839-BA07-46E1-8D5A-46A1EFB933EE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,9 @@
   <si>
     <t>Assignment 3</t>
   </si>
+  <si>
+    <t>Assignment 4</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +84,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820B02A1-2325-4B85-8B01-7177D209DAC7}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -471,9 +480,10 @@
     <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +502,11 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -512,8 +525,11 @@
       <c r="F2" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1020815434</v>
       </c>
@@ -532,8 +548,11 @@
       <c r="F3" s="7">
         <v>26.666666666666668</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1010125106</v>
       </c>
@@ -552,8 +571,11 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>55304317</v>
       </c>
@@ -572,8 +594,11 @@
       <c r="F5" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1002154998</v>
       </c>
@@ -592,8 +617,11 @@
       <c r="F6" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1143847125</v>
       </c>
@@ -612,8 +640,11 @@
       <c r="F7" s="7">
         <v>96.666666666666671</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1020405344</v>
       </c>
@@ -632,8 +663,11 @@
       <c r="F8" s="7">
         <v>88.666666666666671</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1000220414</v>
       </c>
@@ -652,8 +686,11 @@
       <c r="F9" s="7">
         <v>98.666666666666671</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1026304205</v>
       </c>
@@ -672,8 +709,11 @@
       <c r="F10" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>355061</v>
       </c>
@@ -692,8 +732,11 @@
       <c r="F11" s="7">
         <v>94.666666666666671</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1018508749</v>
       </c>
@@ -712,8 +755,11 @@
       <c r="F12" s="7">
         <v>96.666666666666671</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>70253417</v>
       </c>
@@ -732,8 +778,11 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1136888718</v>
       </c>
@@ -752,8 +801,11 @@
       <c r="F14" s="7">
         <v>98.666666666666671</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>293841098</v>
       </c>
@@ -772,8 +824,11 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1072714383</v>
       </c>
@@ -792,8 +847,11 @@
       <c r="F16" s="7">
         <v>98.666666666666671</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1010243078</v>
       </c>
@@ -812,8 +870,11 @@
       <c r="F17" s="7">
         <v>98.666666666666671</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1007351402</v>
       </c>
@@ -832,8 +893,11 @@
       <c r="F18" s="7">
         <v>98.666666666666671</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1002996359</v>
       </c>
@@ -852,8 +916,11 @@
       <c r="F19" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1010236320</v>
       </c>
@@ -872,8 +939,11 @@
       <c r="F20" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1020845574</v>
       </c>
@@ -892,8 +962,11 @@
       <c r="F21" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1020729394</v>
       </c>
@@ -907,13 +980,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="7">
-        <v>5.882352941176471</v>
+        <v>88.24</v>
       </c>
       <c r="F22" s="7">
         <v>85.333333333333329</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>80039961</v>
       </c>
@@ -932,8 +1008,11 @@
       <c r="F23" s="7">
         <v>75.999999999999986</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1026304547</v>
       </c>
@@ -952,8 +1031,11 @@
       <c r="F24" s="7">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1088328190</v>
       </c>
@@ -972,8 +1054,11 @@
       <c r="F25" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1072706035</v>
       </c>
@@ -992,8 +1077,11 @@
       <c r="F26" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1032453588</v>
       </c>
@@ -1012,8 +1100,11 @@
       <c r="F27" s="7">
         <v>75.333333333333329</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1014288458</v>
       </c>
@@ -1032,8 +1123,11 @@
       <c r="F28" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1143877513</v>
       </c>
@@ -1052,8 +1146,11 @@
       <c r="F29" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1019131372</v>
       </c>
@@ -1072,8 +1169,11 @@
       <c r="F30" s="7">
         <v>95.999999999999986</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1136880643</v>
       </c>
@@ -1092,8 +1192,11 @@
       <c r="F31" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1018508173</v>
       </c>
@@ -1112,8 +1215,11 @@
       <c r="F32" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1004133287</v>
       </c>
@@ -1132,8 +1238,11 @@
       <c r="F33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1015468827</v>
       </c>
@@ -1152,8 +1261,11 @@
       <c r="F34" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1143372208</v>
       </c>
@@ -1172,8 +1284,11 @@
       <c r="F35" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1014264765</v>
       </c>
@@ -1192,8 +1307,11 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1018503227</v>
       </c>
@@ -1212,8 +1330,11 @@
       <c r="F37" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1015448479</v>
       </c>
@@ -1232,8 +1353,11 @@
       <c r="F38" s="7">
         <v>98.666666666666671</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1018496783</v>
       </c>
@@ -1252,8 +1376,11 @@
       <c r="F39" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1071171655</v>
       </c>
@@ -1272,8 +1399,11 @@
       <c r="F40" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1020821245</v>
       </c>
@@ -1292,8 +1422,11 @@
       <c r="F41" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>80774647</v>
       </c>
@@ -1312,8 +1445,11 @@
       <c r="F42" s="7">
         <v>95.333333333333329</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1056076234</v>
       </c>
@@ -1332,8 +1468,12 @@
       <c r="F43" s="7">
         <v>0</v>
       </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Grades/Grades.xlsx
+++ b/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\Bogot-grades\Roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41419D6-0437-4F6A-809E-EE89F78C2F2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D4C05E-711F-4B09-8CE6-48B0A7A4E2F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3D61839-BA07-46E1-8D5A-46A1EFB933EE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -48,13 +48,25 @@
     <t>Assignment 2</t>
   </si>
   <si>
-    <t>maximum grade</t>
-  </si>
-  <si>
     <t>Assignment 3</t>
   </si>
   <si>
     <t>Assignment 4</t>
+  </si>
+  <si>
+    <t>Assignment grade</t>
+  </si>
+  <si>
+    <t>Final exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Score Urosario</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +143,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -152,6 +177,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,103 +506,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820B02A1-2325-4B85-8B01-7177D209DAC7}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3"/>
-    <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="12.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5">
-        <v>100</v>
-      </c>
-      <c r="G2" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1020815434</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
+      <c r="B3" s="7">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7">
+        <v>26.666666666666668</v>
       </c>
       <c r="E3" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3" s="7">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="G3" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="7">
+        <f>SUM(B3:E3)*0.001</f>
+        <v>0.25166666666666665</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUM(F3:I3)</f>
+        <v>0.75166666666666671</v>
+      </c>
+      <c r="K3" s="6">
+        <f>J3*5</f>
+        <v>3.7583333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1010125106</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="7">
@@ -571,734 +652,1214 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H43" si="0">SUM(B4:E4)*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J43" si="1">SUM(F4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K43" si="2">J4*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>55304317</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
+      <c r="B5" s="7">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>91.17647058823529</v>
+      </c>
+      <c r="D5" s="7">
+        <v>75</v>
       </c>
       <c r="E5" s="7">
-        <v>91.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36617647058823533</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86617647058823533</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3308823529411766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1002154998</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="7">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7">
+        <v>79.705882352941174</v>
+      </c>
+      <c r="D6" s="7">
         <v>100</v>
       </c>
       <c r="E6" s="7">
-        <v>79.705882352941174</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37970588235294117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9797058823529412</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8985294117647058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1143847125</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100</v>
+      <c r="B7" s="7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <v>94.117647058823536</v>
+      </c>
+      <c r="D7" s="7">
+        <v>96.666666666666671</v>
       </c>
       <c r="E7" s="7">
-        <v>94.117647058823536</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39078431372549022</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUM(F7:I7)</f>
+        <v>0.98453431372549027</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9226715686274511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1020405344</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="B8" s="7">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7">
+        <v>77.941176470588232</v>
+      </c>
+      <c r="D8" s="7">
+        <v>88.666666666666671</v>
       </c>
       <c r="E8" s="7">
-        <v>77.941176470588232</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7">
-        <v>88.666666666666671</v>
-      </c>
-      <c r="G8" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34160784313725495</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87910784313725499</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3955392156862754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1000220414</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
+      <c r="B9" s="7">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>96.352941176470608</v>
+      </c>
+      <c r="D9" s="7">
+        <v>98.666666666666671</v>
       </c>
       <c r="E9" s="7">
-        <v>96.352941176470608</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39501960784313728</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99501960784313737</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9750980392156867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1026304205</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7">
+        <v>94.117647058823536</v>
+      </c>
+      <c r="D10" s="7">
         <v>100</v>
       </c>
       <c r="E10" s="7">
-        <v>94.117647058823536</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39411764705882352</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99411764705882355</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9705882352941178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>355061</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
+      <c r="B11" s="7">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>94.666666666666671</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7">
-        <v>94.666666666666671</v>
-      </c>
-      <c r="G11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29466666666666669</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4946666666666667</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4733333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1018508749</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="D12" s="7">
+        <v>96.666666666666671</v>
       </c>
       <c r="E12" s="7">
-        <v>88.235294117647058</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.38490196078431377</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88490196078431382</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>4.4245098039215689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>70253417</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
+      <c r="B13" s="7">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>75</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1136888718</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>100</v>
+      <c r="B14" s="7">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7">
+        <v>99.29411764705884</v>
+      </c>
+      <c r="D14" s="7">
+        <v>98.666666666666671</v>
       </c>
       <c r="E14" s="7">
-        <v>99.29411764705884</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39796078431372556</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99796078431372559</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9898039215686278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>293841098</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="B15" s="7">
+        <v>100</v>
+      </c>
+      <c r="C15" s="7">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1072714383</v>
       </c>
-      <c r="B16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>100</v>
+      <c r="B16" s="7">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>98.666666666666671</v>
       </c>
       <c r="E16" s="7">
         <v>100</v>
       </c>
       <c r="F16" s="7">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="G16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39866666666666667</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9986666666666667</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9933333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1010243078</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="B17" s="7">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7">
+        <v>99.29411764705884</v>
+      </c>
+      <c r="D17" s="7">
+        <v>98.666666666666671</v>
       </c>
       <c r="E17" s="7">
-        <v>99.29411764705884</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37296078431372554</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93546078431372548</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6773039215686278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1007351402</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="B18" s="7">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="D18" s="7">
+        <v>98.666666666666671</v>
       </c>
       <c r="E18" s="7">
-        <v>76.470588235294116</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37513725490196076</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.39124999999999999</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96638725490196076</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="2"/>
+        <v>4.831936274509804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1002996359</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="7">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7">
         <v>100</v>
       </c>
       <c r="E19" s="7">
         <v>100</v>
       </c>
       <c r="F19" s="7">
-        <v>100</v>
-      </c>
-      <c r="G19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1010236320</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="7">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7">
+        <v>99.29411764705884</v>
+      </c>
+      <c r="D20" s="7">
         <v>100</v>
       </c>
       <c r="E20" s="7">
-        <v>99.29411764705884</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39929411764705885</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93679411764705889</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6839705882352947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1020845574</v>
       </c>
-      <c r="B21" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="7">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>92.647058823529406</v>
+      </c>
+      <c r="D21" s="7">
         <v>100</v>
       </c>
       <c r="E21" s="7">
-        <v>92.647058823529406</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3926470588235294</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99264705882352944</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9632352941176467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1020729394</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="B22" s="7">
+        <v>100</v>
+      </c>
+      <c r="C22" s="7">
+        <v>88.24</v>
+      </c>
+      <c r="D22" s="7">
+        <v>85.333333333333329</v>
       </c>
       <c r="E22" s="7">
-        <v>88.24</v>
+        <v>93.75</v>
       </c>
       <c r="F22" s="7">
-        <v>85.333333333333329</v>
-      </c>
-      <c r="G22" s="3">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36732333333333334</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92732333333333339</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6366166666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>80039961</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>100</v>
+      <c r="B23" s="7">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7">
+        <v>91.17647058823529</v>
+      </c>
+      <c r="D23" s="7">
+        <v>75.999999999999986</v>
       </c>
       <c r="E23" s="7">
-        <v>91.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7">
-        <v>75.999999999999986</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36717647058823533</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9521764705882354</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7608823529411772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1026304547</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
+      <c r="B24" s="7">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7">
+        <v>99.29411764705884</v>
+      </c>
+      <c r="D24" s="7">
+        <v>92</v>
       </c>
       <c r="E24" s="7">
-        <v>99.29411764705884</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7">
-        <v>92</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39129411764705885</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95379411764705879</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7689705882352937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1088328190</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="7">
+        <v>100</v>
+      </c>
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
         <v>100</v>
       </c>
       <c r="E25" s="7">
         <v>100</v>
       </c>
       <c r="F25" s="7">
-        <v>100</v>
-      </c>
-      <c r="G25" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1072706035</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="7">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7">
+        <v>97.64705882352942</v>
+      </c>
+      <c r="D26" s="7">
         <v>100</v>
       </c>
       <c r="E26" s="7">
-        <v>97.64705882352942</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39764705882352941</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99764705882352944</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9882352941176471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1032453588</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>100</v>
+      <c r="B27" s="7">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7">
+        <v>95.588235294117652</v>
+      </c>
+      <c r="D27" s="7">
+        <v>75.333333333333329</v>
       </c>
       <c r="E27" s="7">
-        <v>95.588235294117652</v>
+        <v>100</v>
       </c>
       <c r="F27" s="7">
-        <v>75.333333333333329</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37092156862745101</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87092156862745096</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3546078431372548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1014288458</v>
       </c>
-      <c r="B28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="7">
+        <v>100</v>
+      </c>
+      <c r="C28" s="7">
+        <v>94.705882352941188</v>
+      </c>
+      <c r="D28" s="7">
         <v>100</v>
       </c>
       <c r="E28" s="7">
-        <v>94.705882352941188</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7">
-        <v>100</v>
-      </c>
-      <c r="G28" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39470588235294124</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99470588235294122</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>4.973529411764706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1143877513</v>
       </c>
-      <c r="B29" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="7">
+        <v>100</v>
+      </c>
+      <c r="C29" s="7">
+        <v>100</v>
+      </c>
+      <c r="D29" s="7">
         <v>100</v>
       </c>
       <c r="E29" s="7">
         <v>100</v>
       </c>
       <c r="F29" s="7">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1019131372</v>
       </c>
-      <c r="B30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>100</v>
+      <c r="B30" s="7">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" s="7">
+        <v>95.999999999999986</v>
       </c>
       <c r="E30" s="7">
         <v>100</v>
       </c>
       <c r="F30" s="7">
-        <v>95.999999999999986</v>
-      </c>
-      <c r="G30" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99600000000000011</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1136880643</v>
       </c>
-      <c r="B31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="7">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7">
+        <v>91.941176470588232</v>
+      </c>
+      <c r="D31" s="7">
         <v>100</v>
       </c>
       <c r="E31" s="7">
-        <v>91.941176470588232</v>
+        <v>100</v>
       </c>
       <c r="F31" s="7">
-        <v>100</v>
-      </c>
-      <c r="G31" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39194117647058824</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99194117647058822</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9597058823529414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1018508173</v>
       </c>
-      <c r="B32" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="B32" s="7">
+        <v>100</v>
+      </c>
+      <c r="C32" s="7">
+        <v>89.71</v>
+      </c>
+      <c r="D32" s="7">
+        <v>78</v>
       </c>
       <c r="E32" s="7">
-        <v>89.71</v>
+        <v>100</v>
       </c>
       <c r="F32" s="7">
-        <v>78</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36770999999999998</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96770999999999996</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8385499999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1004133287</v>
       </c>
-      <c r="B33" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="B33" s="7">
+        <v>100</v>
+      </c>
+      <c r="C33" s="7">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7">
+        <v>93.33</v>
       </c>
       <c r="E33" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36832999999999999</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94333</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7166499999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1015468827</v>
       </c>
-      <c r="B34" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="7">
+        <v>100</v>
+      </c>
+      <c r="C34" s="7">
+        <v>97.64705882352942</v>
+      </c>
+      <c r="D34" s="7">
         <v>100</v>
       </c>
       <c r="E34" s="7">
-        <v>97.64705882352942</v>
+        <v>100</v>
       </c>
       <c r="F34" s="7">
-        <v>100</v>
-      </c>
-      <c r="G34" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39764705882352941</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99764705882352944</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9882352941176471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1143372208</v>
       </c>
-      <c r="B35" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="7">
+        <v>100</v>
+      </c>
+      <c r="C35" s="7">
+        <v>94.117647058823536</v>
+      </c>
+      <c r="D35" s="7">
         <v>100</v>
       </c>
       <c r="E35" s="7">
-        <v>94.117647058823536</v>
+        <v>100</v>
       </c>
       <c r="F35" s="7">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39411764705882352</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98161764705882359</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9080882352941178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1014264765</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
         <v>0</v>
       </c>
       <c r="E36" s="7">
@@ -1307,159 +1868,264 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1018503227</v>
       </c>
-      <c r="B37" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="7">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7">
+        <v>100</v>
+      </c>
+      <c r="D37" s="7">
         <v>100</v>
       </c>
       <c r="E37" s="7">
         <v>100</v>
       </c>
       <c r="F37" s="7">
-        <v>100</v>
-      </c>
-      <c r="G37" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1015448479</v>
       </c>
-      <c r="B38" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>100</v>
+      <c r="B38" s="7">
+        <v>100</v>
+      </c>
+      <c r="C38" s="7">
+        <v>94.117647058823536</v>
+      </c>
+      <c r="D38" s="7">
+        <v>98.666666666666671</v>
       </c>
       <c r="E38" s="7">
-        <v>94.117647058823536</v>
+        <v>100</v>
       </c>
       <c r="F38" s="7">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="G38" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39278431372549022</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99278431372549025</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9639215686274509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1018496783</v>
       </c>
-      <c r="B39" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>100</v>
+      <c r="B39" s="7">
+        <v>100</v>
+      </c>
+      <c r="C39" s="7">
+        <v>100</v>
+      </c>
+      <c r="D39" s="7">
+        <v>82</v>
       </c>
       <c r="E39" s="7">
         <v>100</v>
       </c>
       <c r="F39" s="7">
-        <v>82</v>
-      </c>
-      <c r="G39" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="0"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88200000000000012</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="2"/>
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1071171655</v>
       </c>
-      <c r="B40" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="7">
+        <v>100</v>
+      </c>
+      <c r="C40" s="7">
+        <v>92.647058823529406</v>
+      </c>
+      <c r="D40" s="7">
         <v>100</v>
       </c>
       <c r="E40" s="7">
-        <v>92.647058823529406</v>
+        <v>100</v>
       </c>
       <c r="F40" s="7">
-        <v>100</v>
-      </c>
-      <c r="G40" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3926470588235294</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99264705882352944</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9632352941176467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1020821245</v>
       </c>
-      <c r="B41" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="7">
+        <v>100</v>
+      </c>
+      <c r="C41" s="7">
+        <v>100</v>
+      </c>
+      <c r="D41" s="7">
         <v>100</v>
       </c>
       <c r="E41" s="7">
         <v>100</v>
       </c>
       <c r="F41" s="7">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>80774647</v>
       </c>
-      <c r="B42" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>100</v>
+      <c r="B42" s="7">
+        <v>100</v>
+      </c>
+      <c r="C42" s="7">
+        <v>98.529411764705884</v>
+      </c>
+      <c r="D42" s="7">
+        <v>95.333333333333329</v>
       </c>
       <c r="E42" s="7">
-        <v>98.529411764705884</v>
+        <v>100</v>
       </c>
       <c r="F42" s="7">
-        <v>95.333333333333329</v>
-      </c>
-      <c r="G42" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39386274509803926</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9876127450980392</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9380637254901956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1056076234</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
         <v>0</v>
       </c>
       <c r="E43" s="7">
@@ -1468,13 +2134,32 @@
       <c r="F43" s="7">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3:H43" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>